--- a/src/main/java/com/webmargic/知乎.xlsx
+++ b/src/main/java/com/webmargic/知乎.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="知乎" sheetId="1" r:id="rId1"/>
+    <sheet name="微博" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,9 +16,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>表名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>updated_time</t>
+  </si>
+  <si>
+    <t>zh_question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -26,91 +48,518 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>答题总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>totals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被浏览数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>browse_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteup_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excerpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_copyable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thanks_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>created_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户格言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像模版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar_url_template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_followed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否广告商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_advertiser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是机构认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_following</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统存储抓去时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博话题信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wb_topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wb_comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>totals</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>updated_time</t>
-  </si>
-  <si>
-    <t>question_type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>问题表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答题表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excerpt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteup_count</t>
-  </si>
-  <si>
-    <t>点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,20 +567,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_count</t>
-  </si>
-  <si>
-    <t>is_copyable</t>
-  </si>
-  <si>
-    <t>thanks_count</t>
-  </si>
-  <si>
-    <t>感谢总数</t>
+    <t>like_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wb_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +615,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +636,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF881391"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -175,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,16 +665,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,162 +1045,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:D31"/>
+  <dimension ref="C8:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="49.625" customWidth="1"/>
     <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="14" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="D41" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="50" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>30</v>
+    <row r="51" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C42:E42"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -658,14 +1548,422 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47.125" customWidth="1"/>
+    <col min="3" max="3" width="49.75" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B31:D31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
